--- a/output/zamienie/2021/sheets/year_2021.xlsx
+++ b/output/zamienie/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.61935483870968</v>
+        <v>33.78468677666507</v>
       </c>
       <c r="C2" t="n">
-        <v>7.622580645161291</v>
+        <v>33.86782483974396</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.31071428571429</v>
+        <v>33.73818540315263</v>
       </c>
       <c r="C3" t="n">
-        <v>6.164285714285714</v>
+        <v>36.24510467445312</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.2</v>
+        <v>31.35472443693179</v>
       </c>
       <c r="C4" t="n">
-        <v>4.851612903225806</v>
+        <v>30.77286465227725</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.286666666666667</v>
+        <v>33.9134003186383</v>
       </c>
       <c r="C5" t="n">
-        <v>3.9</v>
+        <v>30.35131759580826</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.81935483870968</v>
+        <v>46.30507930429334</v>
       </c>
       <c r="C6" t="n">
-        <v>13.81935483870968</v>
+        <v>34.73416834594219</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.75333333333333</v>
+        <v>34.38796379101616</v>
       </c>
       <c r="C7" t="n">
-        <v>7.69</v>
+        <v>36.16640247630886</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4483870967742</v>
+        <v>35.0329115488358</v>
       </c>
       <c r="C8" t="n">
-        <v>12.33225806451613</v>
+        <v>32.83985174925002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.18064516129032</v>
+        <v>39.14466346352355</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2258064516129</v>
+        <v>36.95964413418234</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.08</v>
+        <v>34.40815992775623</v>
       </c>
       <c r="C10" t="n">
-        <v>17.25666666666667</v>
+        <v>35.79053065488259</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.08387096774193</v>
+        <v>34.64082833274033</v>
       </c>
       <c r="C11" t="n">
-        <v>25.74516129032258</v>
+        <v>37.16264715282171</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.33666666666667</v>
+        <v>34.41704615314006</v>
       </c>
       <c r="C12" t="n">
-        <v>20.29666666666666</v>
+        <v>38.73025606469506</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.24193548387097</v>
+        <v>35.78929588294232</v>
       </c>
       <c r="C13" t="n">
-        <v>17.0258064516129</v>
+        <v>39.05744766238217</v>
       </c>
     </row>
   </sheetData>
